--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LeaveApplication" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +39,218 @@
   </si>
   <si>
     <t xml:space="preserve">Jom@lley007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leaveTypes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Bank General Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Call Back Vacation Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Excess Earned Leaves"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Excess General Leaves"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"General Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Leave Without Pay"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"On-call Vacation Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Overtime Vacation Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Service Incentive Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Solo Parent Leave"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Unauthorized LWOP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="JetBrains Mono ExtraLight"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">"Vacation Leave"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -47,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -88,6 +301,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono ExtraLight"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,4 +496,48 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">leaveTypes</t>
   </si>
   <si>
+    <t xml:space="preserve">testComment</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -251,6 +254,12 @@
       </rPr>
       <t xml:space="preserve">"Vacation Leave"</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“TEST COMMENT/REMARK”</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -503,15 +512,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,14 +532,24 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jom@lley007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountWithZeroVacationLeaveBalance</t>
   </si>
   <si>
     <t xml:space="preserve">leaveTypes</t>
@@ -458,10 +461,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,9 +496,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Jom@lley007"/>
+    <hyperlink ref="C3" r:id="rId2" display="Jom@lley007"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -514,7 +529,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -530,26 +545,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -303,20 +303,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF2A00FF"/>
+      <color rgb="FF000000"/>
       <name val="JetBrains Mono ExtraLight"/>
       <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF2A00FF"/>
       <name val="JetBrains Mono ExtraLight"/>
       <family val="0"/>
     </font>
@@ -363,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,7 +380,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,14 +468,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,10 +513,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Jom@lley007"/>
-    <hyperlink ref="C3" r:id="rId2" display="Jom@lley007"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -555,7 +556,7 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,225 +44,7 @@
     <t xml:space="preserve">accountWithZeroVacationLeaveBalance</t>
   </si>
   <si>
-    <t xml:space="preserve">leaveTypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testComment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Bank General Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Call Back Vacation Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Excess Earned Leaves"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Excess General Leaves"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"General Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Leave Without Pay"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"On-call Vacation Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Overtime Vacation Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Service Incentive Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Solo Parent Leave"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Unauthorized LWOP"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF2A00FF"/>
-        <rFont val="JetBrains Mono ExtraLight"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">"Vacation Leave"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TC008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“TEST COMMENT/REMARK”</t>
+    <t xml:space="preserve">expectedFromAndToDateFormat</t>
   </si>
 </sst>
 </file>
@@ -272,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -306,6 +88,7 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono ExtraLight"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,12 +96,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000C0"/>
+      <name val="JetBrains Mono ExtraLight"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF2A00FF"/>
       <name val="JetBrains Mono ExtraLight"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -385,6 +175,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,7 +197,7 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FF0000C0"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
@@ -430,7 +224,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -468,7 +262,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,10 +322,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,28 +339,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/testData/timetracker_bryan.xlsx
+++ b/testData/timetracker_bryan.xlsx
@@ -102,6 +102,7 @@
       <color rgb="FF0000C0"/>
       <name val="JetBrains Mono ExtraLight"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -262,7 +263,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
